--- a/10/3/Total general y categorías 2003 a 2021 - Mensual.xlsx
+++ b/10/3/Total general y categorías 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t>Serie</t>
   </si>
@@ -674,6 +674,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5959,6 +5962,29 @@
         <v>56.77</v>
       </c>
     </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215">
+        <v>61.7</v>
+      </c>
+      <c r="C215">
+        <v>51.52</v>
+      </c>
+      <c r="D215">
+        <v>62.94</v>
+      </c>
+      <c r="E215">
+        <v>62.01</v>
+      </c>
+      <c r="F215">
+        <v>60.35</v>
+      </c>
+      <c r="G215">
+        <v>59.96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/3/Total general y categorías 2003 a 2021 - Mensual.xlsx
+++ b/10/3/Total general y categorías 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>Serie</t>
   </si>
@@ -677,6 +677,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G215"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5985,6 +5988,29 @@
         <v>59.96</v>
       </c>
     </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>221</v>
+      </c>
+      <c r="B216">
+        <v>61.21</v>
+      </c>
+      <c r="C216">
+        <v>56.44</v>
+      </c>
+      <c r="D216">
+        <v>61.9</v>
+      </c>
+      <c r="E216">
+        <v>61.68</v>
+      </c>
+      <c r="F216">
+        <v>60.68</v>
+      </c>
+      <c r="G216">
+        <v>60.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/3/Total general y categorías 2003 a 2021 - Mensual.xlsx
+++ b/10/3/Total general y categorías 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
   <si>
     <t>Serie</t>
   </si>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6011,6 +6014,29 @@
         <v>60.45</v>
       </c>
     </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>222</v>
+      </c>
+      <c r="B217">
+        <v>57.97</v>
+      </c>
+      <c r="C217">
+        <v>48.11</v>
+      </c>
+      <c r="D217">
+        <v>59.33</v>
+      </c>
+      <c r="E217">
+        <v>66.15000000000001</v>
+      </c>
+      <c r="F217">
+        <v>58.2</v>
+      </c>
+      <c r="G217">
+        <v>56.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
